--- a/data/climate_data_availability/6180_data.xlsx
+++ b/data/climate_data_availability/6180_data.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20304"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_4DC8E58FB809FDCE5F5B01EAB79A7CBC8FD37BD3" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="179016" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,29 +22,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>inventory nr</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>month</t>
   </si>
   <si>
     <t>year</t>
   </si>
   <si>
+    <t>temp_min</t>
+  </si>
+  <si>
+    <t>temp_max</t>
+  </si>
+  <si>
     <t>precip</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>temp_min</t>
-  </si>
-  <si>
-    <t>temp_max</t>
-  </si>
-  <si>
     <t>psychrometry_temp_dry</t>
   </si>
   <si>
@@ -62,23 +63,32 @@
     <t>haut bar. Luc</t>
   </si>
   <si>
-    <t>07.00</t>
-  </si>
-  <si>
-    <t>14.00</t>
-  </si>
-  <si>
-    <t>hygrometricite_max</t>
-  </si>
-  <si>
-    <t>hygrometricite_min</t>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>actino</t>
+  </si>
+  <si>
+    <t>hygro</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,63 +239,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="88">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
@@ -293,29 +307,25 @@
     <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -374,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,9 +417,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,6 +469,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -617,37 +661,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:T202"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -678,6 +722,15 @@
       </c>
       <c r="Q1" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -692,12 +745,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -709,12 +762,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
